--- a/TestHorse/bin/Debug/马的基础属性.xlsx
+++ b/TestHorse/bin/Debug/马的基础属性.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/TestHorse/TestHorse/bin/Debug/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C47724C1-BB8B-447A-8D14-30C062895745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEB5E460-8687-4F0A-BCD8-7EA9A5497FA1}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C47724C1-BB8B-447A-8D14-30C062895745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{531C796B-B6AD-481C-8B2D-45118BF044F2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7F47A43-3CDF-4274-B8DC-20886EF42A49}"/>
   </bookViews>
@@ -605,7 +605,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="D4" s="1">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="E4" s="1">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="F4" s="1">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="G4" s="1">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>

--- a/TestHorse/bin/Debug/马的基础属性.xlsx
+++ b/TestHorse/bin/Debug/马的基础属性.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C47724C1-BB8B-447A-8D14-30C062895745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{531C796B-B6AD-481C-8B2D-45118BF044F2}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{C47724C1-BB8B-447A-8D14-30C062895745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BC9410A-1A9C-4D9D-8F56-32D1D569C83C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7F47A43-3CDF-4274-B8DC-20886EF42A49}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="48">
   <si>
     <t>优秀素质</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,14 @@
   </si>
   <si>
     <t>真机伶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金枪六十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,6 +311,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -602,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C24E2-D653-4FD5-A78C-42E1115C28DD}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -689,19 +709,19 @@
         <v>18</v>
       </c>
       <c r="C2" s="1">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="D2" s="1">
-        <v>89</v>
+        <v>534</v>
       </c>
       <c r="E2" s="1">
-        <v>83</v>
+        <v>498</v>
       </c>
       <c r="F2" s="1">
-        <v>92</v>
+        <v>552</v>
       </c>
       <c r="G2" s="1">
-        <v>96</v>
+        <v>576</v>
       </c>
       <c r="H2" s="1">
         <v>20</v>
@@ -757,19 +777,19 @@
         <v>32</v>
       </c>
       <c r="C3" s="1">
-        <v>93</v>
+        <v>558</v>
       </c>
       <c r="D3" s="1">
-        <v>95</v>
+        <v>570</v>
       </c>
       <c r="E3" s="1">
-        <v>85</v>
+        <v>510</v>
       </c>
       <c r="F3" s="1">
-        <v>96</v>
+        <v>576</v>
       </c>
       <c r="G3" s="1">
-        <v>81</v>
+        <v>486</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -825,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>186</v>
+        <v>616</v>
       </c>
       <c r="D4" s="1">
-        <v>172</v>
+        <v>532</v>
       </c>
       <c r="E4" s="1">
-        <v>189</v>
+        <v>634</v>
       </c>
       <c r="F4" s="1">
-        <v>169</v>
+        <v>614</v>
       </c>
       <c r="G4" s="1">
-        <v>184</v>
+        <v>604</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -893,19 +913,19 @@
         <v>33</v>
       </c>
       <c r="C5" s="1">
-        <v>71</v>
+        <v>426</v>
       </c>
       <c r="D5" s="1">
-        <v>117</v>
+        <v>702</v>
       </c>
       <c r="E5" s="1">
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="F5" s="1">
-        <v>102</v>
+        <v>612</v>
       </c>
       <c r="G5" s="1">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -961,19 +981,19 @@
         <v>34</v>
       </c>
       <c r="C6" s="1">
-        <v>94</v>
+        <v>564</v>
       </c>
       <c r="D6" s="1">
-        <v>85</v>
+        <v>510</v>
       </c>
       <c r="E6" s="1">
-        <v>85</v>
+        <v>510</v>
       </c>
       <c r="F6" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="G6" s="1">
-        <v>86</v>
+        <v>516</v>
       </c>
       <c r="H6" s="1">
         <v>20</v>
@@ -1029,19 +1049,19 @@
         <v>35</v>
       </c>
       <c r="C7" s="1">
-        <v>112</v>
+        <v>672</v>
       </c>
       <c r="D7" s="1">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="E7" s="1">
-        <v>118</v>
+        <v>708</v>
       </c>
       <c r="F7" s="1">
-        <v>94</v>
+        <v>564</v>
       </c>
       <c r="G7" s="1">
-        <v>102</v>
+        <v>612</v>
       </c>
       <c r="H7" s="1">
         <v>20</v>
@@ -1097,19 +1117,19 @@
         <v>36</v>
       </c>
       <c r="C8" s="1">
-        <v>71</v>
+        <v>426</v>
       </c>
       <c r="D8" s="1">
-        <v>111</v>
+        <v>666</v>
       </c>
       <c r="E8" s="1">
-        <v>71</v>
+        <v>426</v>
       </c>
       <c r="F8" s="1">
-        <v>103</v>
+        <v>618</v>
       </c>
       <c r="G8" s="1">
-        <v>94</v>
+        <v>564</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -1165,19 +1185,19 @@
         <v>37</v>
       </c>
       <c r="C9" s="1">
-        <v>73</v>
+        <v>438</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E9" s="1">
-        <v>67</v>
+        <v>402</v>
       </c>
       <c r="F9" s="1">
-        <v>95</v>
+        <v>570</v>
       </c>
       <c r="G9" s="1">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1233,19 +1253,19 @@
         <v>38</v>
       </c>
       <c r="C10" s="1">
-        <v>96</v>
+        <v>576</v>
       </c>
       <c r="D10" s="1">
-        <v>72</v>
+        <v>432</v>
       </c>
       <c r="E10" s="1">
-        <v>92</v>
+        <v>552</v>
       </c>
       <c r="F10" s="1">
-        <v>102</v>
+        <v>612</v>
       </c>
       <c r="G10" s="1">
-        <v>88</v>
+        <v>528</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -1301,19 +1321,19 @@
         <v>39</v>
       </c>
       <c r="C11" s="1">
-        <v>96</v>
+        <v>576</v>
       </c>
       <c r="D11" s="1">
-        <v>101</v>
+        <v>606</v>
       </c>
       <c r="E11" s="1">
-        <v>92</v>
+        <v>552</v>
       </c>
       <c r="F11" s="1">
-        <v>107</v>
+        <v>642</v>
       </c>
       <c r="G11" s="1">
-        <v>104</v>
+        <v>624</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1369,19 +1389,19 @@
         <v>42</v>
       </c>
       <c r="C12" s="1">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="D12" s="1">
-        <v>76</v>
+        <v>456</v>
       </c>
       <c r="E12" s="1">
-        <v>76</v>
+        <v>456</v>
       </c>
       <c r="F12" s="1">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="G12" s="1">
-        <v>87</v>
+        <v>522</v>
       </c>
       <c r="H12" s="1">
         <v>20</v>
@@ -1437,19 +1457,19 @@
         <v>43</v>
       </c>
       <c r="C13" s="1">
-        <v>85</v>
+        <v>510</v>
       </c>
       <c r="D13" s="1">
-        <v>91</v>
+        <v>546</v>
       </c>
       <c r="E13" s="1">
-        <v>83</v>
+        <v>498</v>
       </c>
       <c r="F13" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="G13" s="1">
-        <v>91</v>
+        <v>546</v>
       </c>
       <c r="H13" s="1">
         <v>8</v>
@@ -1505,19 +1525,19 @@
         <v>44</v>
       </c>
       <c r="C14" s="1">
-        <v>83</v>
+        <v>498</v>
       </c>
       <c r="D14" s="1">
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="E14" s="1">
-        <v>83</v>
+        <v>498</v>
       </c>
       <c r="F14" s="1">
-        <v>113</v>
+        <v>678</v>
       </c>
       <c r="G14" s="1">
-        <v>101</v>
+        <v>606</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1573,19 +1593,19 @@
         <v>45</v>
       </c>
       <c r="C15" s="1">
-        <v>97</v>
+        <v>582</v>
       </c>
       <c r="D15" s="1">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="E15" s="1">
-        <v>107</v>
+        <v>642</v>
       </c>
       <c r="F15" s="1">
-        <v>91</v>
+        <v>546</v>
       </c>
       <c r="G15" s="1">
-        <v>97</v>
+        <v>582</v>
       </c>
       <c r="H15" s="1">
         <v>10</v>
@@ -1641,19 +1661,19 @@
         <v>41</v>
       </c>
       <c r="C16" s="1">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="D16" s="1">
-        <v>96</v>
+        <v>576</v>
       </c>
       <c r="E16" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F16" s="1">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="G16" s="1">
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1709,19 +1729,19 @@
         <v>40</v>
       </c>
       <c r="C17" s="1">
-        <v>83</v>
+        <v>498</v>
       </c>
       <c r="D17" s="1">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="E17" s="1">
-        <v>89</v>
+        <v>534</v>
       </c>
       <c r="F17" s="1">
-        <v>86</v>
+        <v>516</v>
       </c>
       <c r="G17" s="1">
-        <v>84</v>
+        <v>504</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1770,158 +1790,140 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1">
+        <v>708</v>
+      </c>
+      <c r="D18" s="1">
+        <v>456</v>
+      </c>
+      <c r="E18" s="1">
+        <v>654</v>
+      </c>
+      <c r="F18" s="1">
+        <v>606</v>
+      </c>
+      <c r="G18" s="1">
+        <v>576</v>
+      </c>
+      <c r="H18" s="1">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-    </row>
-    <row r="23" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1">
+        <v>504</v>
+      </c>
+      <c r="D19" s="1">
+        <v>882</v>
+      </c>
+      <c r="E19" s="1">
+        <v>552</v>
+      </c>
+      <c r="F19" s="1">
+        <v>564</v>
+      </c>
+      <c r="G19" s="1">
+        <v>498</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>10</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TestHorse/bin/Debug/马的基础属性.xlsx
+++ b/TestHorse/bin/Debug/马的基础属性.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{C47724C1-BB8B-447A-8D14-30C062895745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BC9410A-1A9C-4D9D-8F56-32D1D569C83C}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{C47724C1-BB8B-447A-8D14-30C062895745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47319CF4-5E05-4F94-9587-F1F6C5137726}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7F47A43-3CDF-4274-B8DC-20886EF42A49}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="49">
   <si>
     <t>优秀素质</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,10 @@
   </si>
   <si>
     <t>无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,6 +326,18 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -625,7 +641,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1852,7 @@
         <v>23</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>19</v>
@@ -1910,7 +1926,7 @@
         <v>23</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>25</v>

--- a/TestHorse/bin/Debug/马的基础属性.xlsx
+++ b/TestHorse/bin/Debug/马的基础属性.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{C47724C1-BB8B-447A-8D14-30C062895745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47319CF4-5E05-4F94-9587-F1F6C5137726}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{C47724C1-BB8B-447A-8D14-30C062895745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D9A48B6-188B-45C8-9FFF-343833C93EE4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7F47A43-3CDF-4274-B8DC-20886EF42A49}"/>
+    <workbookView xWindow="5220" yWindow="2400" windowWidth="17280" windowHeight="8964" xr2:uid="{B7F47A43-3CDF-4274-B8DC-20886EF42A49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -338,6 +338,10 @@
 </file>
 
 <file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -640,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C24E2-D653-4FD5-A78C-42E1115C28DD}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1884,13 +1888,13 @@
         <v>504</v>
       </c>
       <c r="D19" s="1">
-        <v>882</v>
+        <v>782</v>
       </c>
       <c r="E19" s="1">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="F19" s="1">
-        <v>564</v>
+        <v>694</v>
       </c>
       <c r="G19" s="1">
         <v>498</v>

--- a/TestHorse/bin/Debug/马的基础属性.xlsx
+++ b/TestHorse/bin/Debug/马的基础属性.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PrivateHorseRace\TestHorse\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{C47724C1-BB8B-447A-8D14-30C062895745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D9A48B6-188B-45C8-9FFF-343833C93EE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306DC141-BC45-4153-9311-D405D34C244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="2400" windowWidth="17280" windowHeight="8964" xr2:uid="{B7F47A43-3CDF-4274-B8DC-20886EF42A49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F47A43-3CDF-4274-B8DC-20886EF42A49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="51">
   <si>
     <t>优秀素质</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,14 @@
   </si>
   <si>
     <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰收时刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北方风味</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,18 +650,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C24E2-D653-4FD5-A78C-42E1115C28DD}">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -721,7 +729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -789,7 +797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -857,7 +865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -925,7 +933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -993,7 +1001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1061,7 +1069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1129,7 +1137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1197,7 +1205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1265,7 +1273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1333,7 +1341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1401,7 +1409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1469,7 +1477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1537,7 +1545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1605,7 +1613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1673,7 +1681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1741,7 +1749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1809,7 +1817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1877,7 +1885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1943,6 +1951,142 @@
       </c>
       <c r="V19" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1">
+        <v>864</v>
+      </c>
+      <c r="D20" s="1">
+        <v>510</v>
+      </c>
+      <c r="E20" s="1">
+        <v>510</v>
+      </c>
+      <c r="F20" s="1">
+        <v>600</v>
+      </c>
+      <c r="G20" s="1">
+        <v>516</v>
+      </c>
+      <c r="H20" s="1">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1">
+        <v>426</v>
+      </c>
+      <c r="D21" s="1">
+        <v>620</v>
+      </c>
+      <c r="E21" s="1">
+        <v>426</v>
+      </c>
+      <c r="F21" s="1">
+        <v>602</v>
+      </c>
+      <c r="G21" s="1">
+        <v>626</v>
+      </c>
+      <c r="H21" s="1">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>10</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/TestHorse/bin/Debug/马的基础属性.xlsx
+++ b/TestHorse/bin/Debug/马的基础属性.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PrivateHorseRace\TestHorse\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306DC141-BC45-4153-9311-D405D34C244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{306DC141-BC45-4153-9311-D405D34C244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E353654-D213-4959-A985-3813D1E67E09}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F47A43-3CDF-4274-B8DC-20886EF42A49}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7F47A43-3CDF-4274-B8DC-20886EF42A49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="52">
   <si>
     <t>优秀素质</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,10 @@
   </si>
   <si>
     <t>北方风味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐米可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,18 +654,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C24E2-D653-4FD5-A78C-42E1115C28DD}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -729,7 +733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -797,7 +801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -865,7 +869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -933,7 +937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1001,7 +1005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1069,7 +1073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1137,7 +1141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1205,7 +1209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1341,7 +1345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1409,7 +1413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1477,7 +1481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1545,7 +1549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1817,7 +1821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1885,7 +1889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1953,7 +1957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2021,7 +2025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2087,6 +2091,74 @@
       </c>
       <c r="V21" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1">
+        <v>600</v>
+      </c>
+      <c r="D22" s="1">
+        <v>576</v>
+      </c>
+      <c r="E22" s="1">
+        <v>492</v>
+      </c>
+      <c r="F22" s="1">
+        <v>462</v>
+      </c>
+      <c r="G22" s="1">
+        <v>420</v>
+      </c>
+      <c r="H22" s="1">
+        <v>7</v>
+      </c>
+      <c r="I22" s="1">
+        <v>8</v>
+      </c>
+      <c r="J22" s="1">
+        <v>8</v>
+      </c>
+      <c r="K22" s="1">
+        <v>7</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/TestHorse/bin/Debug/马的基础属性.xlsx
+++ b/TestHorse/bin/Debug/马的基础属性.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbda78479129d0fb/repo/PrivateHorseRace/TestHorse/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{306DC141-BC45-4153-9311-D405D34C244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E353654-D213-4959-A985-3813D1E67E09}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{306DC141-BC45-4153-9311-D405D34C244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{226573A1-E793-40CE-8E08-FA0069C286A7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7F47A43-3CDF-4274-B8DC-20886EF42A49}"/>
   </bookViews>
@@ -354,6 +354,10 @@
 </file>
 
 <file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -657,7 +661,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1862,7 +1866,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>23</v>
@@ -1883,10 +1887,10 @@
         <v>25</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1939,7 +1943,7 @@
         <v>25</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>48</v>
